--- a/ACCOUNT_REPORT/Source/WISOL.UI/RECEIVE_PAYMENT.xlsx
+++ b/ACCOUNT_REPORT/Source/WISOL.UI/RECEIVE_PAYMENT.xlsx
@@ -29,9 +29,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Bank</t>
-  </si>
-  <si>
     <t>Date Rev/Paymt</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>Bank account</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,41 +777,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
